--- a/Meno/Docs/Meno_BOM.xlsx
+++ b/Meno/Docs/Meno_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="11670"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="11670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TinyMEGA2560C_BOM01" sheetId="1" r:id="rId1"/>
@@ -1064,27 +1064,27 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>TinyMEGA2560C BOM v1.0-20200311 3頁目/3頁</t>
-    <rPh sb="33" eb="34">
+    <t>Meno BOM v1.0-20200318 1頁目/3頁</t>
+    <rPh sb="28" eb="29">
+      <t>ページ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Meno BOM v1.0-20200318 2頁目/3頁</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Meno BOM v1.0-20200318 3頁目/3頁</t>
+    <rPh sb="24" eb="25">
       <t>ペイジ</t>
     </rPh>
-    <rPh sb="34" eb="35">
+    <rPh sb="25" eb="26">
       <t>メ</t>
     </rPh>
-    <rPh sb="37" eb="38">
+    <rPh sb="28" eb="29">
       <t>ペイジ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>TinyMEGA2560C BOM v1.0-20200311 1頁目/3頁</t>
-    <rPh sb="37" eb="38">
-      <t>ページ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>TinyMEGA2560C BOM v1.0-20200311 2頁目/3頁</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2209,7 +2209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -2226,7 +2226,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -2930,7 +2930,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3544,7 +3544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3557,7 +3557,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>

--- a/Meno/Docs/Meno_BOM.xlsx
+++ b/Meno/Docs/Meno_BOM.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="11670" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TinyMEGA2560C_BOM01" sheetId="1" r:id="rId1"/>
-    <sheet name="TinyMEGA2560C_BOM02" sheetId="3" r:id="rId2"/>
-    <sheet name="TinyMEGA2560C_BOM03" sheetId="4" r:id="rId3"/>
+    <sheet name="Meno_BOM01" sheetId="1" r:id="rId1"/>
+    <sheet name="Meno_BOM02" sheetId="3" r:id="rId2"/>
+    <sheet name="Meno_BOM03" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="238">
   <si>
     <t xml:space="preserve">C10 </t>
   </si>
@@ -24,9 +24,6 @@
     <t>0.22u</t>
   </si>
   <si>
-    <t>Capacitor_SMD:C_0805_2012Metric</t>
-  </si>
-  <si>
     <t>1u</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t xml:space="preserve">F1 </t>
   </si>
   <si>
-    <t>Fuse:Fuse_1812_4532Metric</t>
-  </si>
-  <si>
     <t xml:space="preserve">J1 </t>
   </si>
   <si>
@@ -84,21 +78,12 @@
     <t xml:space="preserve">L1 </t>
   </si>
   <si>
-    <t>Inductor_SMD:L_0805_2012Metric</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q1 </t>
   </si>
   <si>
-    <t>Package_TO_SOT_SMD:SOT-23</t>
-  </si>
-  <si>
     <t>5.1k</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_0805_2012Metric</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -129,13 +114,7 @@
     <t xml:space="preserve">U4 </t>
   </si>
   <si>
-    <t>Package_TO_SOT_SMD:SOT-23-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y1 </t>
-  </si>
-  <si>
-    <t>Crystal:Crystal_SMD_SeikoEpson_FA238-4Pin_3.2x2.5mm</t>
   </si>
   <si>
     <t>Murata Electronics</t>
@@ -715,14 +694,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Capacitor_SMD:C_0805_2012Metric</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LED_SMD:LED_0805_2012Metric</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>C6, 7</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -791,10 +762,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Resistor_SMD:R_0805_2012Metric</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>RK73B2ATTD333J</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -804,14 +771,6 @@
   </si>
   <si>
     <t>N/A</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Diode_SMD:D_SOD-123</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Diode_SMD:D_SOD-123F</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -848,10 +807,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>LED_SMD:LED_0805_2012Metric</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>I-09340 (20個/袋)</t>
     <rPh sb="11" eb="12">
       <t>コ</t>
@@ -1085,6 +1040,73 @@
     <rPh sb="28" eb="29">
       <t>ペイジ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.41mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.42mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.43mm_HandSolder</t>
+  </si>
+  <si>
+    <t>SOD123(F)-HandSolder:D_SOD-123</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.41mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.42mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.43mm_HandSolder</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.41mm_HandSolder</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.42mm_HandSolder</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.43mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Fuse:Fuse_1812_4532Metric_Pad1.30x3.40mm_HandSolder</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23_Handsoldering</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-5_HandSoldering</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Crystal:Crystal_SMD_SeikoEpson_FA238-4Pin_3.2x2.5mm_HandSoldering</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SOD123(F)-HandSolder:D_SOD-123</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1755,7 +1777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1863,6 +1885,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2226,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -2241,64 +2266,64 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -2313,229 +2338,229 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -2547,331 +2572,331 @@
         <v>18742</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G32" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="27" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -2882,7 +2907,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -2892,7 +2917,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -2917,7 +2942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2930,60 +2957,60 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>224</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
+      <c r="C5" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F5" s="22"/>
     </row>
@@ -2994,482 +3021,482 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
+      <c r="C6" s="14" t="s">
+        <v>226</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>161</v>
+      <c r="C7" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>162</v>
+      <c r="C9" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>193</v>
+      <c r="C10" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>162</v>
+      <c r="C11" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
+      <c r="C24" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
+      <c r="C25" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>39</v>
+      <c r="C32" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F32" s="22"/>
     </row>
@@ -3545,7 +3572,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3557,42 +3584,42 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1">
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -3603,34 +3630,34 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -3639,7 +3666,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -3648,7 +3675,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -3657,84 +3684,84 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -3743,7 +3770,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -3752,40 +3779,40 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
@@ -3794,7 +3821,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -3803,7 +3830,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -3812,68 +3839,68 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Meno/Docs/Meno_BOM.xlsx
+++ b/Meno/Docs/Meno_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="11670" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meno_BOM01" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="239">
   <si>
     <t xml:space="preserve">C10 </t>
   </si>
@@ -57,24 +57,6 @@
     <t xml:space="preserve">J3 </t>
   </si>
   <si>
-    <t xml:space="preserve">J4 </t>
-  </si>
-  <si>
-    <t>Connector_PinSocket_2.54mm:PinSocket_2x19_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J5 </t>
-  </si>
-  <si>
-    <t>Connector_PinSocket_2.54mm:PinSocket_2x12_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J6 </t>
-  </si>
-  <si>
-    <t>Connector_PinSocket_2.54mm:PinSocket_2x15_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t xml:space="preserve">L1 </t>
   </si>
   <si>
@@ -214,10 +196,6 @@
   </si>
   <si>
     <t>RK73B2ATTD512J</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>FHU-2x42SG</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -540,19 +518,7 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Conn_02x15_Female</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Conn_02x12_Female</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Lチカ用LED</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Conn_02x19_Female</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -577,13 +543,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>J4に同じ</t>
-    <rPh sb="3" eb="4">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>チップ抵抗 (0.25W)</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -799,14 +758,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>J4に同じ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>J4に同じ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>I-09340 (20個/袋)</t>
     <rPh sb="11" eb="12">
       <t>コ</t>
@@ -849,10 +800,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>FHU-2x42SG</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>FA-238 16.0000MB-K3</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -884,22 +831,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>*3: ピンソケットの外側のピン配置はArduino Unoと互換。 TinyMEGA2560C-PinMapping.pngを参照。</t>
-    <rPh sb="11" eb="13">
-      <t>ソトガワ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ゴカン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>*2: ロットによってはOpto Supply製のOSG80805C1Cの場合あり。 もしくは同等品 (参考: 条件= IF=20[mA](typ), VF=2.1[V](typ), 2012Metric)。</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -987,10 +918,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>CP-102AH-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>5077CR-16SMC2-BK-TR:GCT_USB4105-GF-A (gct.coから)</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1019,18 +946,125 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Meno BOM v1.0-20200318 1頁目/3頁</t>
+    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.41mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.42mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.43mm_HandSolder</t>
+  </si>
+  <si>
+    <t>SOD123(F)-HandSolder:D_SOD-123</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.41mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.42mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.43mm_HandSolder</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.41mm_HandSolder</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.42mm_HandSolder</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.43mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Fuse:Fuse_1812_4532Metric_Pad1.30x3.40mm_HandSolder</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23_Handsoldering</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-5_HandSoldering</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Crystal:Crystal_SMD_SeikoEpson_FA238-4Pin_3.2x2.5mm_HandSoldering</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SOD123(F)-HandSolder:D_SOD-123</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>*3: ピンソケットの外側のピン配置はArduino Unoと互換。 Meno-PinMapping.pngを参照。</t>
+    <rPh sb="11" eb="13">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J4, 5, 6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J7, 8, 9</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Conn_02x12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FHU-1x42SG</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Conn_01x06, 08, 15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Meno BOM v1.0-20200327 1頁目/3頁</t>
     <rPh sb="28" eb="29">
       <t>ページ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Meno BOM v1.0-20200318 2頁目/3頁</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Meno BOM v1.0-20200318 3頁目/3頁</t>
+    <t>Meno BOM v1.0-20200327 2頁目/3頁</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Meno BOM v1.0-20200327 3頁目/3頁</t>
     <rPh sb="24" eb="25">
       <t>ペイジ</t>
     </rPh>
@@ -1043,70 +1077,44 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.41mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.42mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.43mm_HandSolder</t>
-  </si>
-  <si>
-    <t>SOD123(F)-HandSolder:D_SOD-123</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.41mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.42mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.43mm_HandSolder</t>
-  </si>
-  <si>
-    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.41mm_HandSolder</t>
-  </si>
-  <si>
-    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.42mm_HandSolder</t>
-  </si>
-  <si>
-    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.43mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Fuse:Fuse_1812_4532Metric_Pad1.30x3.40mm_HandSolder</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD:SOT-23_Handsoldering</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD:SOT-23-5_HandSoldering</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Inductor_SMD:L_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Crystal:Crystal_SMD_SeikoEpson_FA238-4Pin_3.2x2.5mm_HandSoldering</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SOD123(F)-HandSolder:D_SOD-123</t>
+    <t>http://akizukidenshi.com/download/ds/useconn/FHU-1.pdf</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Conn_01x08, 10, 19</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_1x08, 10, 19</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_1x06, 08, 15</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_2x12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C-05779</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J4, 5, 6に同じ</t>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J4, 5, 6に同じ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CP-102A-ND</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1469,7 +1477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1645,6 +1653,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1777,7 +1807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1856,6 +1886,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1886,8 +1922,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2235,7 +2277,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A18" sqref="A18:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2250,14 +2292,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
@@ -2266,28 +2308,28 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1">
         <v>9</v>
@@ -2296,19 +2338,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2317,13 +2359,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -2338,19 +2380,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2359,19 +2401,19 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2380,61 +2422,61 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -2443,55 +2485,55 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -2503,16 +2545,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -2524,16 +2566,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -2548,13 +2590,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -2572,358 +2614,358 @@
         <v>18742</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G32" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="A34" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="A35" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
+      <c r="A36" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2942,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2957,60 +2999,60 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F5" s="22"/>
     </row>
@@ -3022,139 +3064,139 @@
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F13" s="24"/>
     </row>
@@ -3166,13 +3208,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F14" s="22"/>
     </row>
@@ -3184,13 +3226,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F15" s="22"/>
     </row>
@@ -3205,10 +3247,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F16" s="22"/>
     </row>
@@ -3220,283 +3262,283 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>149</v>
+        <v>61</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>235</v>
       </c>
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>236</v>
+      <c r="C32" s="27" t="s">
+        <v>217</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F32" s="22"/>
     </row>
@@ -3504,14 +3546,14 @@
       <c r="A33" s="12"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="27"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -3571,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3583,43 +3625,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1">
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -3630,78 +3672,78 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>182</v>
+      <c r="C8" s="35" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="37"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -3712,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -3723,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -3734,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -3745,162 +3787,164 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="26" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>134</v>
+      <c r="C23" s="32" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="33"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="32"/>
+      <c r="C26" s="34"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3908,7 +3952,7 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <hyperlinks>
@@ -3920,21 +3964,22 @@
     <hyperlink ref="C23" r:id="rId6"/>
     <hyperlink ref="C22" r:id="rId7"/>
     <hyperlink ref="C21" r:id="rId8"/>
-    <hyperlink ref="C18" r:id="rId9"/>
-    <hyperlink ref="C17" r:id="rId10"/>
-    <hyperlink ref="C16" r:id="rId11"/>
-    <hyperlink ref="C15" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C13" r:id="rId14"/>
-    <hyperlink ref="C8" r:id="rId15"/>
-    <hyperlink ref="C12" r:id="rId16"/>
-    <hyperlink ref="C7" r:id="rId17"/>
-    <hyperlink ref="C4" r:id="rId18"/>
-    <hyperlink ref="C6" r:id="rId19"/>
-    <hyperlink ref="C5" r:id="rId20"/>
-    <hyperlink ref="C28" r:id="rId21"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C16" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C13" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="C12" r:id="rId15"/>
+    <hyperlink ref="C7" r:id="rId16"/>
+    <hyperlink ref="C4" r:id="rId17"/>
+    <hyperlink ref="C6" r:id="rId18"/>
+    <hyperlink ref="C5" r:id="rId19"/>
+    <hyperlink ref="C28" r:id="rId20"/>
+    <hyperlink ref="C20" r:id="rId21"/>
+    <hyperlink ref="C18" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId23"/>
 </worksheet>
 </file>